--- a/Assets/SaveData/ExcelFiles/MergeMode/WeaponSkill.xlsx
+++ b/Assets/SaveData/ExcelFiles/MergeMode/WeaponSkill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>string</t>
   </si>
@@ -45,108 +45,112 @@
     <t>spriteName</t>
   </si>
   <si>
+    <t>소총</t>
+  </si>
+  <si>
     <t>단발총</t>
   </si>
   <si>
-    <t>소총</t>
-  </si>
-  <si>
-    <t>산탄총</t>
-  </si>
-  <si>
-    <t>유탄입니다.</t>
+    <t>적의 약점을 노려 치명적인 일격을 가하는 무기.
+먼 거리에서 포격하는 적을 저격하기에 용이하다.</t>
   </si>
   <si>
     <t>빠른 연사속도로 적을 공격하는 무기.
 범용성이 높아 다양한 적에 대응할 수 있고 행동이 재빠른 적을 제압하기에 용이하다.</t>
   </si>
   <si>
+    <t>Skill_ESG</t>
+  </si>
+  <si>
+    <t>Skill_LG</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>산탄총</t>
+  </si>
+  <si>
     <t>여러 갈래로 탄환을 발사하여 공격하는 무기.
 사거리는 짧으나, 근접한 적을 쓸어버리는데에 효과가 좋다.</t>
   </si>
   <si>
-    <t>EnergySphereGun</t>
-  </si>
-  <si>
-    <t>LinearGun</t>
-  </si>
-  <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>ShotGun</t>
-  </si>
-  <si>
     <t>화력 강화</t>
   </si>
   <si>
+    <t>Skill_SG</t>
+  </si>
+  <si>
     <t>데미지가 10 증가합니다.</t>
   </si>
   <si>
+    <t>각 탄환당 데미지가 5 증가합니다.</t>
+  </si>
+  <si>
     <t>ATKup</t>
   </si>
   <si>
-    <t>각 탄환당 데미지가 5 증가합니다.</t>
-  </si>
-  <si>
     <t>2_1</t>
   </si>
   <si>
+    <t>신속 장전</t>
+  </si>
+  <si>
+    <t>발사 후 재장전 속도가 1초 감소합니다.</t>
+  </si>
+  <si>
+    <t>ASup</t>
+  </si>
+  <si>
+    <t>약점 조준</t>
+  </si>
+  <si>
+    <t>발사 후 재장전 속도가 0.25초 감소합니다.</t>
+  </si>
+  <si>
+    <t>치명타 확률이 10% 증가합니다.</t>
+  </si>
+  <si>
+    <t>CCup</t>
+  </si>
+  <si>
+    <t>탄환 추가</t>
+  </si>
+  <si>
+    <t>탄환을 1개 더 발사합니다.</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>AAup</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>약점 파괴</t>
+  </si>
+  <si>
+    <t>치명타 피해량이 50% 증가합니다.</t>
+  </si>
+  <si>
+    <t>CRup</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
     <t>사거리 증가</t>
   </si>
   <si>
     <t>공격 사거리가 1m 증가합니다.</t>
   </si>
   <si>
-    <t>약점 조준</t>
-  </si>
-  <si>
-    <t>치명타 확률이 10% 증가합니다.</t>
+    <t>중력장 생성(U)</t>
   </si>
   <si>
     <t>ARup</t>
-  </si>
-  <si>
-    <t>신속 장전</t>
-  </si>
-  <si>
-    <t>CCup</t>
-  </si>
-  <si>
-    <t>발사 후 재장전 속도가 0.25초 감소합니다.</t>
-  </si>
-  <si>
-    <t>2_2</t>
-  </si>
-  <si>
-    <t>ASup</t>
-  </si>
-  <si>
-    <t>탄환 추가</t>
-  </si>
-  <si>
-    <t>탄환을 1개 더 발사합니다.</t>
-  </si>
-  <si>
-    <t>2_3</t>
-  </si>
-  <si>
-    <t>AAup</t>
-  </si>
-  <si>
-    <t>약점 파괴</t>
-  </si>
-  <si>
-    <t>치명타 피해량이 50% 증가합니다.</t>
-  </si>
-  <si>
-    <t>CRup</t>
-  </si>
-  <si>
-    <t>3_1</t>
-  </si>
-  <si>
-    <t>중력장 생성(U)</t>
   </si>
   <si>
     <t>에너지를 충전한 특수 탄환을 발사해 처음 적중한 대상 주위에 3초간 적을 끌어당기는 중력장을 생성합니다.
@@ -157,16 +161,6 @@
     <t>U_GravityField</t>
   </si>
   <si>
-    <t>관통 사격(U)</t>
-  </si>
-  <si>
-    <t>피격 대상들을 모두 관통하며 피해를 입히는 탄환을 10회 발사합니다.
-재사용 대기시간 5초</t>
-  </si>
-  <si>
-    <t>U_PanetratingShot</t>
-  </si>
-  <si>
     <t>더블 배럴(U)</t>
   </si>
   <si>
@@ -175,7 +169,17 @@
 재사용 대기시간 5초</t>
   </si>
   <si>
+    <t>관통 사격(U)</t>
+  </si>
+  <si>
     <t>U_DoubleBarrel</t>
+  </si>
+  <si>
+    <t>피격 대상들을 모두 관통하며 피해를 입히는 탄환을 10회 발사합니다.
+재사용 대기시간 5초</t>
+  </si>
+  <si>
+    <t>U_PanetratingShot</t>
   </si>
 </sst>
 </file>
@@ -517,21 +521,21 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -540,16 +544,16 @@
         <v>100.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>5.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -557,27 +561,27 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>100.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>25.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -586,44 +590,44 @@
         <v>100.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
         <v>25.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -632,16 +636,16 @@
         <v>500.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2">
         <v>10.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -719,21 +723,21 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -741,17 +745,17 @@
       <c r="C4" s="1">
         <v>100.0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
+      <c r="F4" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -759,27 +763,27 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>100.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>1.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -788,44 +792,44 @@
         <v>100.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
         <v>1.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1">
         <v>5.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -834,16 +838,16 @@
         <v>500.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2">
         <v>2.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -921,21 +925,21 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -944,7 +948,7 @@
         <v>100.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
@@ -953,7 +957,7 @@
         <v>10.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -961,16 +965,16 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>100.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>10.0</v>
@@ -981,7 +985,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -990,10 +994,10 @@
         <v>100.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>10.0</v>
@@ -1004,30 +1008,30 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
         <v>50.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -1039,13 +1043,13 @@
         <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2">
         <v>3.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
